--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangliang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangliang/Desktop/liang_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>刷新</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>reject 的时候加备注</t>
-  </si>
-  <si>
-    <t>标签title</t>
   </si>
   <si>
     <t>dashboard 最左侧显示不全</t>
@@ -149,6 +146,35 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>mei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search 当日所有订单</t>
+    <rPh sb="7" eb="8">
+      <t>dang'ri'suo'you'ding'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示订单详情</t>
+    <rPh sb="0" eb="1">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan'xiang'qing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1380,15 +1406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV32"/>
+  <dimension ref="A1:IV31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
     <col min="3" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
@@ -1471,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1482,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1538,11 +1564,15 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -1560,14 +1590,14 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1576,8 +1606,12 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -1635,19 +1669,21 @@
     </row>
     <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1701,13 +1737,6 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1734,10 +1763,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1745,10 +1774,10 @@
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1756,10 +1785,10 @@
     </row>
     <row r="3" spans="1:5" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>42390</v>
